--- a/Code/Results/Cases/Case_4_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017948907730537</v>
+        <v>1.05039458813473</v>
       </c>
       <c r="D2">
-        <v>1.030186868616891</v>
+        <v>1.048909380469829</v>
       </c>
       <c r="E2">
-        <v>1.033237269856049</v>
+        <v>1.06381790568024</v>
       </c>
       <c r="F2">
-        <v>1.035347244204892</v>
+        <v>1.070806667848352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048336617683165</v>
+        <v>1.043217386086064</v>
       </c>
       <c r="J2">
-        <v>1.039605710108056</v>
+        <v>1.055427972682501</v>
       </c>
       <c r="K2">
-        <v>1.041241080884204</v>
+        <v>1.051667911557302</v>
       </c>
       <c r="L2">
-        <v>1.04425219122592</v>
+        <v>1.066535518156538</v>
       </c>
       <c r="M2">
-        <v>1.046335157171417</v>
+        <v>1.073505522935751</v>
       </c>
       <c r="N2">
-        <v>1.016452410280896</v>
+        <v>1.02221899464468</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023387951152153</v>
+        <v>1.051519514112478</v>
       </c>
       <c r="D3">
-        <v>1.034137656082923</v>
+        <v>1.04974064279374</v>
       </c>
       <c r="E3">
-        <v>1.038498268846402</v>
+        <v>1.064966442646165</v>
       </c>
       <c r="F3">
-        <v>1.041179569989036</v>
+        <v>1.072097132856637</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050081429424166</v>
+        <v>1.043517990724983</v>
       </c>
       <c r="J3">
-        <v>1.043260725089706</v>
+        <v>1.056201706364152</v>
       </c>
       <c r="K3">
-        <v>1.044351605167074</v>
+        <v>1.052311264445393</v>
       </c>
       <c r="L3">
-        <v>1.048661159595425</v>
+        <v>1.067498303623833</v>
       </c>
       <c r="M3">
-        <v>1.051311327843647</v>
+        <v>1.074611248611253</v>
       </c>
       <c r="N3">
-        <v>1.017721235130799</v>
+        <v>1.022483182104633</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026824932799672</v>
+        <v>1.05224732215546</v>
       </c>
       <c r="D4">
-        <v>1.036636955229844</v>
+        <v>1.050278381968585</v>
       </c>
       <c r="E4">
-        <v>1.041828036089557</v>
+        <v>1.065709924901993</v>
       </c>
       <c r="F4">
-        <v>1.044872123470574</v>
+        <v>1.072932737735765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051174423532911</v>
+        <v>1.043711254879945</v>
       </c>
       <c r="J4">
-        <v>1.045566483918014</v>
+        <v>1.056701704054577</v>
       </c>
       <c r="K4">
-        <v>1.0463124327802</v>
+        <v>1.052726766399158</v>
       </c>
       <c r="L4">
-        <v>1.05144654164255</v>
+        <v>1.068121007374703</v>
       </c>
       <c r="M4">
-        <v>1.054457543235882</v>
+        <v>1.075326756499781</v>
       </c>
       <c r="N4">
-        <v>1.018521040580971</v>
+        <v>1.022653745136543</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028250938708382</v>
+        <v>1.052553271188552</v>
       </c>
       <c r="D5">
-        <v>1.037674513627048</v>
+        <v>1.050504413341985</v>
       </c>
       <c r="E5">
-        <v>1.043210799267145</v>
+        <v>1.066022557983545</v>
       </c>
       <c r="F5">
-        <v>1.046405847439085</v>
+        <v>1.073284167906779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051625572671584</v>
+        <v>1.043792204732874</v>
       </c>
       <c r="J5">
-        <v>1.046522177375313</v>
+        <v>1.056911745675429</v>
       </c>
       <c r="K5">
-        <v>1.047124798495025</v>
+        <v>1.052901254500037</v>
       </c>
       <c r="L5">
-        <v>1.052602001545511</v>
+        <v>1.068382725063629</v>
       </c>
       <c r="M5">
-        <v>1.05576330044122</v>
+        <v>1.075627564025122</v>
       </c>
       <c r="N5">
-        <v>1.018852383775799</v>
+        <v>1.022725357985628</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028489286361465</v>
+        <v>1.052604640150712</v>
       </c>
       <c r="D6">
-        <v>1.037847968098381</v>
+        <v>1.050542363002711</v>
       </c>
       <c r="E6">
-        <v>1.043441991289841</v>
+        <v>1.066075054766882</v>
       </c>
       <c r="F6">
-        <v>1.046662298002337</v>
+        <v>1.073343182933046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051700840940449</v>
+        <v>1.043805779076204</v>
       </c>
       <c r="J6">
-        <v>1.046681857429144</v>
+        <v>1.05694700337288</v>
       </c>
       <c r="K6">
-        <v>1.047260509325951</v>
+        <v>1.05293054075028</v>
       </c>
       <c r="L6">
-        <v>1.052795116692456</v>
+        <v>1.068426664709773</v>
       </c>
       <c r="M6">
-        <v>1.0559815715788</v>
+        <v>1.075678071429904</v>
       </c>
       <c r="N6">
-        <v>1.01890773581091</v>
+        <v>1.022737376713792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026844060360225</v>
+        <v>1.052251410344378</v>
       </c>
       <c r="D7">
-        <v>1.03665087011721</v>
+        <v>1.050281402345035</v>
       </c>
       <c r="E7">
-        <v>1.041846578752793</v>
+        <v>1.065714102032086</v>
       </c>
       <c r="F7">
-        <v>1.044892689263309</v>
+        <v>1.072937433003937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051180484248024</v>
+        <v>1.043712337708124</v>
       </c>
       <c r="J7">
-        <v>1.045579306869804</v>
+        <v>1.056704511258831</v>
       </c>
       <c r="K7">
-        <v>1.046323334085603</v>
+        <v>1.052729098659656</v>
       </c>
       <c r="L7">
-        <v>1.051462041086546</v>
+        <v>1.068124504721478</v>
       </c>
       <c r="M7">
-        <v>1.05447505634243</v>
+        <v>1.075330775871977</v>
       </c>
       <c r="N7">
-        <v>1.018525487005448</v>
+        <v>1.022654702391766</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019804648099734</v>
+        <v>1.050774782322478</v>
       </c>
       <c r="D8">
-        <v>1.03153421223719</v>
+        <v>1.049190339156425</v>
       </c>
       <c r="E8">
-        <v>1.03503113246838</v>
+        <v>1.064205997087213</v>
       </c>
       <c r="F8">
-        <v>1.037335678813309</v>
+        <v>1.071242665554469</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048933914304769</v>
+        <v>1.043319235164591</v>
       </c>
       <c r="J8">
-        <v>1.0408535522433</v>
+        <v>1.055689596528267</v>
       </c>
       <c r="K8">
-        <v>1.042303324817506</v>
+        <v>1.051885499512756</v>
       </c>
       <c r="L8">
-        <v>1.045756605381253</v>
+        <v>1.066860955019953</v>
       </c>
       <c r="M8">
-        <v>1.048032592478987</v>
+        <v>1.073879202587505</v>
       </c>
       <c r="N8">
-        <v>1.016885720508272</v>
+        <v>1.02230835756446</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006728507174231</v>
+        <v>1.048172003276403</v>
       </c>
       <c r="D9">
-        <v>1.022055020158627</v>
+        <v>1.047266645538801</v>
       </c>
       <c r="E9">
-        <v>1.022414925184308</v>
+        <v>1.061550799110312</v>
       </c>
       <c r="F9">
-        <v>1.023355169714903</v>
+        <v>1.068260717138608</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044685972844856</v>
+        <v>1.042616978712249</v>
       </c>
       <c r="J9">
-        <v>1.032045881554271</v>
+        <v>1.053896109992956</v>
       </c>
       <c r="K9">
-        <v>1.034800124848487</v>
+        <v>1.05039290285037</v>
       </c>
       <c r="L9">
-        <v>1.035154510332742</v>
+        <v>1.06463221938168</v>
       </c>
       <c r="M9">
-        <v>1.036080358541766</v>
+        <v>1.071321527139417</v>
       </c>
       <c r="N9">
-        <v>1.013824995911919</v>
+        <v>1.021695110378628</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9974981353864107</v>
+        <v>1.04643622639997</v>
       </c>
       <c r="D10">
-        <v>1.015385726270032</v>
+        <v>1.045983433676909</v>
       </c>
       <c r="E10">
-        <v>1.013541317915794</v>
+        <v>1.05978214182167</v>
       </c>
       <c r="F10">
-        <v>1.013526124838842</v>
+        <v>1.066275665746778</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041639317352258</v>
+        <v>1.042142368156681</v>
       </c>
       <c r="J10">
-        <v>1.025811368941514</v>
+        <v>1.052697002555117</v>
       </c>
       <c r="K10">
-        <v>1.02948263433257</v>
+        <v>1.049393737773433</v>
       </c>
       <c r="L10">
-        <v>1.027670309465431</v>
+        <v>1.063144867429654</v>
       </c>
       <c r="M10">
-        <v>1.027655381299974</v>
+        <v>1.069616469567295</v>
       </c>
       <c r="N10">
-        <v>1.011656021664668</v>
+        <v>1.021284294812087</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9933643690069072</v>
+        <v>1.045684458924169</v>
       </c>
       <c r="D11">
-        <v>1.012405317839908</v>
+        <v>1.045427608073879</v>
       </c>
       <c r="E11">
-        <v>1.009575512357977</v>
+        <v>1.059016630314627</v>
       </c>
       <c r="F11">
-        <v>1.009133914026868</v>
+        <v>1.065416789922818</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040264125820057</v>
+        <v>1.041935326014293</v>
       </c>
       <c r="J11">
-        <v>1.023015827422245</v>
+        <v>1.052176948800705</v>
       </c>
       <c r="K11">
-        <v>1.027097019564339</v>
+        <v>1.048960110203888</v>
       </c>
       <c r="L11">
-        <v>1.024319079932828</v>
+        <v>1.062500453407386</v>
       </c>
       <c r="M11">
-        <v>1.023885609588978</v>
+        <v>1.068878160077085</v>
       </c>
       <c r="N11">
-        <v>1.010683036597038</v>
+        <v>1.021105935063</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9918068905117537</v>
+        <v>1.045405192730569</v>
       </c>
       <c r="D12">
-        <v>1.011283457596957</v>
+        <v>1.045221121338485</v>
       </c>
       <c r="E12">
-        <v>1.008082598709236</v>
+        <v>1.058732333416308</v>
       </c>
       <c r="F12">
-        <v>1.007480536384227</v>
+        <v>1.065097863399774</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039744435809576</v>
+        <v>1.041858190748276</v>
       </c>
       <c r="J12">
-        <v>1.021962091075583</v>
+        <v>1.051983651786805</v>
       </c>
       <c r="K12">
-        <v>1.026197630730062</v>
+        <v>1.048798893450753</v>
       </c>
       <c r="L12">
-        <v>1.023056570021521</v>
+        <v>1.062261031025098</v>
       </c>
       <c r="M12">
-        <v>1.022465810824193</v>
+        <v>1.068603916434536</v>
       </c>
       <c r="N12">
-        <v>1.010316235362675</v>
+        <v>1.021039612946004</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9921419956282099</v>
+        <v>1.045465097491176</v>
       </c>
       <c r="D13">
-        <v>1.011524785619147</v>
+        <v>1.045265414733152</v>
       </c>
       <c r="E13">
-        <v>1.008403753339578</v>
+        <v>1.058793313906566</v>
       </c>
       <c r="F13">
-        <v>1.007836208049818</v>
+        <v>1.065166269804173</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039856321114341</v>
+        <v>1.041874746964981</v>
       </c>
       <c r="J13">
-        <v>1.022188831493544</v>
+        <v>1.052025120363038</v>
       </c>
       <c r="K13">
-        <v>1.02639116625361</v>
+        <v>1.048833481705375</v>
       </c>
       <c r="L13">
-        <v>1.023328203194559</v>
+        <v>1.062312390595845</v>
       </c>
       <c r="M13">
-        <v>1.02277126797366</v>
+        <v>1.06866274276768</v>
       </c>
       <c r="N13">
-        <v>1.010395164763893</v>
+        <v>1.021053842497331</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9932360852001084</v>
+        <v>1.045661375238548</v>
       </c>
       <c r="D14">
-        <v>1.012312891988839</v>
+        <v>1.045410540396475</v>
       </c>
       <c r="E14">
-        <v>1.00945252016472</v>
+        <v>1.05899312926902</v>
       </c>
       <c r="F14">
-        <v>1.008997701269327</v>
+        <v>1.065390425363171</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040221352175591</v>
+        <v>1.041928954695155</v>
       </c>
       <c r="J14">
-        <v>1.022929044019961</v>
+        <v>1.05216097338234</v>
       </c>
       <c r="K14">
-        <v>1.027022951165752</v>
+        <v>1.048946787002561</v>
       </c>
       <c r="L14">
-        <v>1.024215088601383</v>
+        <v>1.062480663874743</v>
       </c>
       <c r="M14">
-        <v>1.023768654794056</v>
+        <v>1.068855491073543</v>
       </c>
       <c r="N14">
-        <v>1.010652828579006</v>
+        <v>1.021100454312907</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9939072276493197</v>
+        <v>1.045782304907997</v>
       </c>
       <c r="D15">
-        <v>1.012796480486722</v>
+        <v>1.045499953339014</v>
       </c>
       <c r="E15">
-        <v>1.010096031010242</v>
+        <v>1.059116248453277</v>
       </c>
       <c r="F15">
-        <v>1.009710385807326</v>
+        <v>1.065528547964502</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040445067932004</v>
+        <v>1.041962323300638</v>
       </c>
       <c r="J15">
-        <v>1.023383050384127</v>
+        <v>1.0522446602037</v>
       </c>
       <c r="K15">
-        <v>1.027410432425788</v>
+        <v>1.049016578485511</v>
       </c>
       <c r="L15">
-        <v>1.024759145810928</v>
+        <v>1.06258433483419</v>
       </c>
       <c r="M15">
-        <v>1.02438054938593</v>
+        <v>1.068974249277322</v>
       </c>
       <c r="N15">
-        <v>1.01081085954474</v>
+        <v>1.02112916392934</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9977694745964083</v>
+        <v>1.046486115130826</v>
       </c>
       <c r="D16">
-        <v>1.015581501174834</v>
+        <v>1.04602031803426</v>
       </c>
       <c r="E16">
-        <v>1.01380180670312</v>
+        <v>1.059832953120727</v>
       </c>
       <c r="F16">
-        <v>1.013814631063386</v>
+        <v>1.066332680367577</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041729365575178</v>
+        <v>1.042156076542315</v>
       </c>
       <c r="J16">
-        <v>1.025994800511272</v>
+        <v>1.052731499201692</v>
       </c>
       <c r="K16">
-        <v>1.029639143800476</v>
+        <v>1.04942249545946</v>
       </c>
       <c r="L16">
-        <v>1.027890298514421</v>
+        <v>1.063187626948053</v>
       </c>
       <c r="M16">
-        <v>1.027902900076052</v>
+        <v>1.069665468444058</v>
       </c>
       <c r="N16">
-        <v>1.011719857207539</v>
+        <v>1.021296121962515</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000154518597262</v>
+        <v>1.046927551520984</v>
       </c>
       <c r="D17">
-        <v>1.017303080547312</v>
+        <v>1.046346678906788</v>
       </c>
       <c r="E17">
-        <v>1.016092411479646</v>
+        <v>1.060282610174134</v>
       </c>
       <c r="F17">
-        <v>1.016351670990686</v>
+        <v>1.066837268136164</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042519665354348</v>
+        <v>1.042277202264941</v>
       </c>
       <c r="J17">
-        <v>1.027606760178163</v>
+        <v>1.053036657009517</v>
       </c>
       <c r="K17">
-        <v>1.031014376653752</v>
+        <v>1.049676853017677</v>
       </c>
       <c r="L17">
-        <v>1.029824045481025</v>
+        <v>1.06356595341571</v>
       </c>
       <c r="M17">
-        <v>1.030078944463196</v>
+        <v>1.070099048769863</v>
       </c>
       <c r="N17">
-        <v>1.012280784885912</v>
+        <v>1.021400723332454</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00153256405616</v>
+        <v>1.047185018117824</v>
       </c>
       <c r="D18">
-        <v>1.018298382609847</v>
+        <v>1.046537021721288</v>
       </c>
       <c r="E18">
-        <v>1.017416661673881</v>
+        <v>1.060544919330234</v>
       </c>
       <c r="F18">
-        <v>1.017818450184571</v>
+        <v>1.067131649871905</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042975267749356</v>
+        <v>1.042347704994518</v>
       </c>
       <c r="J18">
-        <v>1.02853779773424</v>
+        <v>1.053214570145959</v>
       </c>
       <c r="K18">
-        <v>1.031808564346419</v>
+        <v>1.049825120718676</v>
       </c>
       <c r="L18">
-        <v>1.030941383682283</v>
+        <v>1.063786588175138</v>
       </c>
       <c r="M18">
-        <v>1.031336542364594</v>
+        <v>1.070351948128884</v>
       </c>
       <c r="N18">
-        <v>1.012604725355162</v>
+        <v>1.021461689828827</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002000259763647</v>
+        <v>1.047272804944101</v>
       </c>
       <c r="D19">
-        <v>1.018636277049024</v>
+        <v>1.046601920666374</v>
       </c>
       <c r="E19">
-        <v>1.017866228960712</v>
+        <v>1.060634365405891</v>
       </c>
       <c r="F19">
-        <v>1.018316415450103</v>
+        <v>1.067232037380168</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043129719920215</v>
+        <v>1.042371719534718</v>
       </c>
       <c r="J19">
-        <v>1.028853725430642</v>
+        <v>1.053275220341761</v>
       </c>
       <c r="K19">
-        <v>1.032078033827747</v>
+        <v>1.049875660117244</v>
       </c>
       <c r="L19">
-        <v>1.031320604053145</v>
+        <v>1.06386181274052</v>
       </c>
       <c r="M19">
-        <v>1.031763410628879</v>
+        <v>1.070438180196323</v>
       </c>
       <c r="N19">
-        <v>1.012714640306615</v>
+        <v>1.021482470079915</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9998999919889954</v>
+        <v>1.046880191217282</v>
       </c>
       <c r="D20">
-        <v>1.01711929466931</v>
+        <v>1.04631166533401</v>
       </c>
       <c r="E20">
-        <v>1.01584788287757</v>
+        <v>1.06023436294684</v>
       </c>
       <c r="F20">
-        <v>1.0160808288219</v>
+        <v>1.066783124012233</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042435431998438</v>
+        <v>1.042264221916914</v>
       </c>
       <c r="J20">
-        <v>1.027434769321672</v>
+        <v>1.053003924771319</v>
       </c>
       <c r="K20">
-        <v>1.030867656181756</v>
+        <v>1.049649572664193</v>
       </c>
       <c r="L20">
-        <v>1.029617675155769</v>
+        <v>1.063525366366783</v>
       </c>
       <c r="M20">
-        <v>1.029846689414195</v>
+        <v>1.070052529787372</v>
       </c>
       <c r="N20">
-        <v>1.012220939865203</v>
+        <v>1.021389505324861</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.992914522981668</v>
+        <v>1.045603577071934</v>
       </c>
       <c r="D21">
-        <v>1.012081230573283</v>
+        <v>1.045367805291474</v>
       </c>
       <c r="E21">
-        <v>1.009144242981148</v>
+        <v>1.058934287305515</v>
       </c>
       <c r="F21">
-        <v>1.008656287793482</v>
+        <v>1.065324414440352</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040114108849648</v>
+        <v>1.041912998237963</v>
       </c>
       <c r="J21">
-        <v>1.022711501454989</v>
+        <v>1.052120971536306</v>
       </c>
       <c r="K21">
-        <v>1.026837279054033</v>
+        <v>1.048913425511204</v>
       </c>
       <c r="L21">
-        <v>1.023954421361607</v>
+        <v>1.062431113207089</v>
       </c>
       <c r="M21">
-        <v>1.02347549920772</v>
+        <v>1.068798731585098</v>
       </c>
       <c r="N21">
-        <v>1.010577104483173</v>
+        <v>1.02108673026635</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9883943062568862</v>
+        <v>1.044800766272814</v>
       </c>
       <c r="D22">
-        <v>1.008827444888792</v>
+        <v>1.044774198771313</v>
       </c>
       <c r="E22">
-        <v>1.004813904181636</v>
+        <v>1.058117156175982</v>
       </c>
       <c r="F22">
-        <v>1.003860569481631</v>
+        <v>1.064407833176695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038602941972086</v>
+        <v>1.041690835649962</v>
       </c>
       <c r="J22">
-        <v>1.019652473677963</v>
+        <v>1.051565094988554</v>
       </c>
       <c r="K22">
-        <v>1.02422603351013</v>
+        <v>1.048449723055849</v>
       </c>
       <c r="L22">
-        <v>1.020290596111039</v>
+        <v>1.061742774832816</v>
       </c>
       <c r="M22">
-        <v>1.019355933729276</v>
+        <v>1.068010403025235</v>
       </c>
       <c r="N22">
-        <v>1.009512191890787</v>
+        <v>1.020895950592299</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9908032235799461</v>
+        <v>1.045226366468951</v>
       </c>
       <c r="D23">
-        <v>1.010560825769876</v>
+        <v>1.045088896507099</v>
       </c>
       <c r="E23">
-        <v>1.007120906788007</v>
+        <v>1.05855030690726</v>
       </c>
       <c r="F23">
-        <v>1.006415488954934</v>
+        <v>1.064893677016921</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039409106404271</v>
+        <v>1.041808734830962</v>
       </c>
       <c r="J23">
-        <v>1.021282922360486</v>
+        <v>1.051859845029565</v>
       </c>
       <c r="K23">
-        <v>1.025617899673078</v>
+        <v>1.048695621970732</v>
       </c>
       <c r="L23">
-        <v>1.022243030407803</v>
+        <v>1.062107708436281</v>
       </c>
       <c r="M23">
-        <v>1.021551024064501</v>
+        <v>1.068428312874284</v>
       </c>
       <c r="N23">
-        <v>1.010079807399254</v>
+        <v>1.020997125708751</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000015042016132</v>
+        <v>1.046901591348246</v>
       </c>
       <c r="D24">
-        <v>1.017202366929419</v>
+        <v>1.046327486515711</v>
       </c>
       <c r="E24">
-        <v>1.015958411262397</v>
+        <v>1.060256163693427</v>
       </c>
       <c r="F24">
-        <v>1.016203250909075</v>
+        <v>1.066807589212314</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042473509974035</v>
+        <v>1.042270087634172</v>
       </c>
       <c r="J24">
-        <v>1.027512512921493</v>
+        <v>1.053018715308494</v>
       </c>
       <c r="K24">
-        <v>1.030933977396185</v>
+        <v>1.049661899774238</v>
       </c>
       <c r="L24">
-        <v>1.029710957647642</v>
+        <v>1.063543706020096</v>
       </c>
       <c r="M24">
-        <v>1.029951671389244</v>
+        <v>1.070073549714957</v>
       </c>
       <c r="N24">
-        <v>1.012247991241012</v>
+        <v>1.021394574400787</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010194615445195</v>
+        <v>1.048844982918109</v>
       </c>
       <c r="D25">
-        <v>1.024564266654167</v>
+        <v>1.047764097852791</v>
       </c>
       <c r="E25">
-        <v>1.025753785816232</v>
+        <v>1.062236967451152</v>
       </c>
       <c r="F25">
-        <v>1.027054260578012</v>
+        <v>1.069031103016446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045820424099485</v>
+        <v>1.04279966295997</v>
       </c>
       <c r="J25">
-        <v>1.034383694405356</v>
+        <v>1.054360374638098</v>
       </c>
       <c r="K25">
-        <v>1.036792856593842</v>
+        <v>1.050779496055907</v>
       </c>
       <c r="L25">
-        <v>1.037965042059597</v>
+        <v>1.065208666706813</v>
       </c>
       <c r="M25">
-        <v>1.039246624526175</v>
+        <v>1.071982732459203</v>
       </c>
       <c r="N25">
-        <v>1.014637869070637</v>
+        <v>1.021853998805246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05039458813473</v>
+        <v>1.017948907730537</v>
       </c>
       <c r="D2">
-        <v>1.048909380469829</v>
+        <v>1.030186868616891</v>
       </c>
       <c r="E2">
-        <v>1.06381790568024</v>
+        <v>1.033237269856049</v>
       </c>
       <c r="F2">
-        <v>1.070806667848352</v>
+        <v>1.035347244204892</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043217386086064</v>
+        <v>1.048336617683164</v>
       </c>
       <c r="J2">
-        <v>1.055427972682501</v>
+        <v>1.039605710108056</v>
       </c>
       <c r="K2">
-        <v>1.051667911557302</v>
+        <v>1.041241080884204</v>
       </c>
       <c r="L2">
-        <v>1.066535518156538</v>
+        <v>1.044252191225919</v>
       </c>
       <c r="M2">
-        <v>1.073505522935751</v>
+        <v>1.046335157171417</v>
       </c>
       <c r="N2">
-        <v>1.02221899464468</v>
+        <v>1.016452410280896</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051519514112478</v>
+        <v>1.023387951152153</v>
       </c>
       <c r="D3">
-        <v>1.04974064279374</v>
+        <v>1.034137656082923</v>
       </c>
       <c r="E3">
-        <v>1.064966442646165</v>
+        <v>1.038498268846401</v>
       </c>
       <c r="F3">
-        <v>1.072097132856637</v>
+        <v>1.041179569989036</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043517990724983</v>
+        <v>1.050081429424166</v>
       </c>
       <c r="J3">
-        <v>1.056201706364152</v>
+        <v>1.043260725089706</v>
       </c>
       <c r="K3">
-        <v>1.052311264445393</v>
+        <v>1.044351605167074</v>
       </c>
       <c r="L3">
-        <v>1.067498303623833</v>
+        <v>1.048661159595425</v>
       </c>
       <c r="M3">
-        <v>1.074611248611253</v>
+        <v>1.051311327843646</v>
       </c>
       <c r="N3">
-        <v>1.022483182104633</v>
+        <v>1.017721235130799</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05224732215546</v>
+        <v>1.026824932799672</v>
       </c>
       <c r="D4">
-        <v>1.050278381968585</v>
+        <v>1.036636955229844</v>
       </c>
       <c r="E4">
-        <v>1.065709924901993</v>
+        <v>1.041828036089557</v>
       </c>
       <c r="F4">
-        <v>1.072932737735765</v>
+        <v>1.044872123470574</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043711254879945</v>
+        <v>1.051174423532912</v>
       </c>
       <c r="J4">
-        <v>1.056701704054577</v>
+        <v>1.045566483918015</v>
       </c>
       <c r="K4">
-        <v>1.052726766399158</v>
+        <v>1.0463124327802</v>
       </c>
       <c r="L4">
-        <v>1.068121007374703</v>
+        <v>1.051446541642551</v>
       </c>
       <c r="M4">
-        <v>1.075326756499781</v>
+        <v>1.054457543235882</v>
       </c>
       <c r="N4">
-        <v>1.022653745136543</v>
+        <v>1.018521040580971</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052553271188552</v>
+        <v>1.028250938708382</v>
       </c>
       <c r="D5">
-        <v>1.050504413341985</v>
+        <v>1.037674513627048</v>
       </c>
       <c r="E5">
-        <v>1.066022557983545</v>
+        <v>1.043210799267145</v>
       </c>
       <c r="F5">
-        <v>1.073284167906779</v>
+        <v>1.046405847439085</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043792204732874</v>
+        <v>1.051625572671584</v>
       </c>
       <c r="J5">
-        <v>1.056911745675429</v>
+        <v>1.046522177375312</v>
       </c>
       <c r="K5">
-        <v>1.052901254500037</v>
+        <v>1.047124798495025</v>
       </c>
       <c r="L5">
-        <v>1.068382725063629</v>
+        <v>1.052602001545511</v>
       </c>
       <c r="M5">
-        <v>1.075627564025122</v>
+        <v>1.05576330044122</v>
       </c>
       <c r="N5">
-        <v>1.022725357985628</v>
+        <v>1.018852383775799</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052604640150712</v>
+        <v>1.028489286361465</v>
       </c>
       <c r="D6">
-        <v>1.050542363002711</v>
+        <v>1.037847968098381</v>
       </c>
       <c r="E6">
-        <v>1.066075054766882</v>
+        <v>1.043441991289841</v>
       </c>
       <c r="F6">
-        <v>1.073343182933046</v>
+        <v>1.046662298002337</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043805779076204</v>
+        <v>1.051700840940449</v>
       </c>
       <c r="J6">
-        <v>1.05694700337288</v>
+        <v>1.046681857429144</v>
       </c>
       <c r="K6">
-        <v>1.05293054075028</v>
+        <v>1.047260509325951</v>
       </c>
       <c r="L6">
-        <v>1.068426664709773</v>
+        <v>1.052795116692456</v>
       </c>
       <c r="M6">
-        <v>1.075678071429904</v>
+        <v>1.0559815715788</v>
       </c>
       <c r="N6">
-        <v>1.022737376713792</v>
+        <v>1.018907735810911</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052251410344378</v>
+        <v>1.026844060360224</v>
       </c>
       <c r="D7">
-        <v>1.050281402345035</v>
+        <v>1.036650870117209</v>
       </c>
       <c r="E7">
-        <v>1.065714102032086</v>
+        <v>1.041846578752793</v>
       </c>
       <c r="F7">
-        <v>1.072937433003937</v>
+        <v>1.044892689263309</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043712337708124</v>
+        <v>1.051180484248024</v>
       </c>
       <c r="J7">
-        <v>1.056704511258831</v>
+        <v>1.045579306869804</v>
       </c>
       <c r="K7">
-        <v>1.052729098659656</v>
+        <v>1.046323334085603</v>
       </c>
       <c r="L7">
-        <v>1.068124504721478</v>
+        <v>1.051462041086546</v>
       </c>
       <c r="M7">
-        <v>1.075330775871977</v>
+        <v>1.05447505634243</v>
       </c>
       <c r="N7">
-        <v>1.022654702391766</v>
+        <v>1.018525487005448</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050774782322478</v>
+        <v>1.019804648099733</v>
       </c>
       <c r="D8">
-        <v>1.049190339156425</v>
+        <v>1.031534212237189</v>
       </c>
       <c r="E8">
-        <v>1.064205997087213</v>
+        <v>1.035031132468378</v>
       </c>
       <c r="F8">
-        <v>1.071242665554469</v>
+        <v>1.037335678813307</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043319235164591</v>
+        <v>1.048933914304768</v>
       </c>
       <c r="J8">
-        <v>1.055689596528267</v>
+        <v>1.040853552243299</v>
       </c>
       <c r="K8">
-        <v>1.051885499512756</v>
+        <v>1.042303324817504</v>
       </c>
       <c r="L8">
-        <v>1.066860955019953</v>
+        <v>1.045756605381252</v>
       </c>
       <c r="M8">
-        <v>1.073879202587505</v>
+        <v>1.048032592478985</v>
       </c>
       <c r="N8">
-        <v>1.02230835756446</v>
+        <v>1.016885720508271</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048172003276403</v>
+        <v>1.006728507174231</v>
       </c>
       <c r="D9">
-        <v>1.047266645538801</v>
+        <v>1.022055020158627</v>
       </c>
       <c r="E9">
-        <v>1.061550799110312</v>
+        <v>1.022414925184308</v>
       </c>
       <c r="F9">
-        <v>1.068260717138608</v>
+        <v>1.023355169714903</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042616978712249</v>
+        <v>1.044685972844856</v>
       </c>
       <c r="J9">
-        <v>1.053896109992956</v>
+        <v>1.032045881554272</v>
       </c>
       <c r="K9">
-        <v>1.05039290285037</v>
+        <v>1.034800124848487</v>
       </c>
       <c r="L9">
-        <v>1.06463221938168</v>
+        <v>1.035154510332743</v>
       </c>
       <c r="M9">
-        <v>1.071321527139417</v>
+        <v>1.036080358541766</v>
       </c>
       <c r="N9">
-        <v>1.021695110378628</v>
+        <v>1.013824995911919</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04643622639997</v>
+        <v>0.9974981353864101</v>
       </c>
       <c r="D10">
-        <v>1.045983433676909</v>
+        <v>1.015385726270031</v>
       </c>
       <c r="E10">
-        <v>1.05978214182167</v>
+        <v>1.013541317915794</v>
       </c>
       <c r="F10">
-        <v>1.066275665746778</v>
+        <v>1.013526124838841</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042142368156681</v>
+        <v>1.041639317352258</v>
       </c>
       <c r="J10">
-        <v>1.052697002555117</v>
+        <v>1.025811368941513</v>
       </c>
       <c r="K10">
-        <v>1.049393737773433</v>
+        <v>1.029482634332569</v>
       </c>
       <c r="L10">
-        <v>1.063144867429654</v>
+        <v>1.027670309465431</v>
       </c>
       <c r="M10">
-        <v>1.069616469567295</v>
+        <v>1.027655381299974</v>
       </c>
       <c r="N10">
-        <v>1.021284294812087</v>
+        <v>1.011656021664667</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045684458924169</v>
+        <v>0.9933643690069064</v>
       </c>
       <c r="D11">
-        <v>1.045427608073879</v>
+        <v>1.012405317839907</v>
       </c>
       <c r="E11">
-        <v>1.059016630314627</v>
+        <v>1.009575512357977</v>
       </c>
       <c r="F11">
-        <v>1.065416789922818</v>
+        <v>1.009133914026867</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041935326014293</v>
+        <v>1.040264125820056</v>
       </c>
       <c r="J11">
-        <v>1.052176948800705</v>
+        <v>1.023015827422245</v>
       </c>
       <c r="K11">
-        <v>1.048960110203888</v>
+        <v>1.027097019564339</v>
       </c>
       <c r="L11">
-        <v>1.062500453407386</v>
+        <v>1.024319079932827</v>
       </c>
       <c r="M11">
-        <v>1.068878160077085</v>
+        <v>1.023885609588977</v>
       </c>
       <c r="N11">
-        <v>1.021105935063</v>
+        <v>1.010683036597037</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045405192730569</v>
+        <v>0.9918068905117535</v>
       </c>
       <c r="D12">
-        <v>1.045221121338485</v>
+        <v>1.011283457596957</v>
       </c>
       <c r="E12">
-        <v>1.058732333416308</v>
+        <v>1.008082598709237</v>
       </c>
       <c r="F12">
-        <v>1.065097863399774</v>
+        <v>1.007480536384227</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041858190748276</v>
+        <v>1.039744435809576</v>
       </c>
       <c r="J12">
-        <v>1.051983651786805</v>
+        <v>1.021962091075583</v>
       </c>
       <c r="K12">
-        <v>1.048798893450753</v>
+        <v>1.026197630730062</v>
       </c>
       <c r="L12">
-        <v>1.062261031025098</v>
+        <v>1.023056570021521</v>
       </c>
       <c r="M12">
-        <v>1.068603916434536</v>
+        <v>1.022465810824193</v>
       </c>
       <c r="N12">
-        <v>1.021039612946004</v>
+        <v>1.010316235362675</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045465097491176</v>
+        <v>0.9921419956282086</v>
       </c>
       <c r="D13">
-        <v>1.045265414733152</v>
+        <v>1.011524785619147</v>
       </c>
       <c r="E13">
-        <v>1.058793313906566</v>
+        <v>1.008403753339578</v>
       </c>
       <c r="F13">
-        <v>1.065166269804173</v>
+        <v>1.007836208049816</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041874746964981</v>
+        <v>1.039856321114341</v>
       </c>
       <c r="J13">
-        <v>1.052025120363038</v>
+        <v>1.022188831493543</v>
       </c>
       <c r="K13">
-        <v>1.048833481705375</v>
+        <v>1.026391166253609</v>
       </c>
       <c r="L13">
-        <v>1.062312390595845</v>
+        <v>1.023328203194558</v>
       </c>
       <c r="M13">
-        <v>1.06866274276768</v>
+        <v>1.022771267973658</v>
       </c>
       <c r="N13">
-        <v>1.021053842497331</v>
+        <v>1.010395164763892</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045661375238548</v>
+        <v>0.9932360852001073</v>
       </c>
       <c r="D14">
-        <v>1.045410540396475</v>
+        <v>1.012312891988838</v>
       </c>
       <c r="E14">
-        <v>1.05899312926902</v>
+        <v>1.009452520164718</v>
       </c>
       <c r="F14">
-        <v>1.065390425363171</v>
+        <v>1.008997701269326</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041928954695155</v>
+        <v>1.04022135217559</v>
       </c>
       <c r="J14">
-        <v>1.05216097338234</v>
+        <v>1.022929044019959</v>
       </c>
       <c r="K14">
-        <v>1.048946787002561</v>
+        <v>1.027022951165751</v>
       </c>
       <c r="L14">
-        <v>1.062480663874743</v>
+        <v>1.024215088601382</v>
       </c>
       <c r="M14">
-        <v>1.068855491073543</v>
+        <v>1.023768654794055</v>
       </c>
       <c r="N14">
-        <v>1.021100454312907</v>
+        <v>1.010652828579006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045782304907997</v>
+        <v>0.9939072276493193</v>
       </c>
       <c r="D15">
-        <v>1.045499953339014</v>
+        <v>1.012796480486722</v>
       </c>
       <c r="E15">
-        <v>1.059116248453277</v>
+        <v>1.010096031010242</v>
       </c>
       <c r="F15">
-        <v>1.065528547964502</v>
+        <v>1.009710385807326</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041962323300638</v>
+        <v>1.040445067932004</v>
       </c>
       <c r="J15">
-        <v>1.0522446602037</v>
+        <v>1.023383050384126</v>
       </c>
       <c r="K15">
-        <v>1.049016578485511</v>
+        <v>1.027410432425788</v>
       </c>
       <c r="L15">
-        <v>1.06258433483419</v>
+        <v>1.024759145810928</v>
       </c>
       <c r="M15">
-        <v>1.068974249277322</v>
+        <v>1.02438054938593</v>
       </c>
       <c r="N15">
-        <v>1.02112916392934</v>
+        <v>1.01081085954474</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046486115130826</v>
+        <v>0.9977694745964085</v>
       </c>
       <c r="D16">
-        <v>1.04602031803426</v>
+        <v>1.015581501174835</v>
       </c>
       <c r="E16">
-        <v>1.059832953120727</v>
+        <v>1.01380180670312</v>
       </c>
       <c r="F16">
-        <v>1.066332680367577</v>
+        <v>1.013814631063386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042156076542315</v>
+        <v>1.041729365575178</v>
       </c>
       <c r="J16">
-        <v>1.052731499201692</v>
+        <v>1.025994800511272</v>
       </c>
       <c r="K16">
-        <v>1.04942249545946</v>
+        <v>1.029639143800477</v>
       </c>
       <c r="L16">
-        <v>1.063187626948053</v>
+        <v>1.027890298514421</v>
       </c>
       <c r="M16">
-        <v>1.069665468444058</v>
+        <v>1.027902900076052</v>
       </c>
       <c r="N16">
-        <v>1.021296121962515</v>
+        <v>1.011719857207539</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046927551520984</v>
+        <v>1.000154518597262</v>
       </c>
       <c r="D17">
-        <v>1.046346678906788</v>
+        <v>1.017303080547312</v>
       </c>
       <c r="E17">
-        <v>1.060282610174134</v>
+        <v>1.016092411479645</v>
       </c>
       <c r="F17">
-        <v>1.066837268136164</v>
+        <v>1.016351670990686</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042277202264941</v>
+        <v>1.042519665354348</v>
       </c>
       <c r="J17">
-        <v>1.053036657009517</v>
+        <v>1.027606760178163</v>
       </c>
       <c r="K17">
-        <v>1.049676853017677</v>
+        <v>1.031014376653751</v>
       </c>
       <c r="L17">
-        <v>1.06356595341571</v>
+        <v>1.029824045481024</v>
       </c>
       <c r="M17">
-        <v>1.070099048769863</v>
+        <v>1.030078944463196</v>
       </c>
       <c r="N17">
-        <v>1.021400723332454</v>
+        <v>1.012280784885912</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047185018117824</v>
+        <v>1.00153256405616</v>
       </c>
       <c r="D18">
-        <v>1.046537021721288</v>
+        <v>1.018298382609847</v>
       </c>
       <c r="E18">
-        <v>1.060544919330234</v>
+        <v>1.017416661673881</v>
       </c>
       <c r="F18">
-        <v>1.067131649871905</v>
+        <v>1.017818450184572</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042347704994518</v>
+        <v>1.042975267749356</v>
       </c>
       <c r="J18">
-        <v>1.053214570145959</v>
+        <v>1.02853779773424</v>
       </c>
       <c r="K18">
-        <v>1.049825120718676</v>
+        <v>1.031808564346419</v>
       </c>
       <c r="L18">
-        <v>1.063786588175138</v>
+        <v>1.030941383682283</v>
       </c>
       <c r="M18">
-        <v>1.070351948128884</v>
+        <v>1.031336542364595</v>
       </c>
       <c r="N18">
-        <v>1.021461689828827</v>
+        <v>1.012604725355162</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047272804944101</v>
+        <v>1.002000259763645</v>
       </c>
       <c r="D19">
-        <v>1.046601920666374</v>
+        <v>1.018636277049023</v>
       </c>
       <c r="E19">
-        <v>1.060634365405891</v>
+        <v>1.017866228960711</v>
       </c>
       <c r="F19">
-        <v>1.067232037380168</v>
+        <v>1.018316415450101</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042371719534718</v>
+        <v>1.043129719920214</v>
       </c>
       <c r="J19">
-        <v>1.053275220341761</v>
+        <v>1.02885372543064</v>
       </c>
       <c r="K19">
-        <v>1.049875660117244</v>
+        <v>1.032078033827746</v>
       </c>
       <c r="L19">
-        <v>1.06386181274052</v>
+        <v>1.031320604053144</v>
       </c>
       <c r="M19">
-        <v>1.070438180196323</v>
+        <v>1.031763410628877</v>
       </c>
       <c r="N19">
-        <v>1.021482470079915</v>
+        <v>1.012714640306614</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046880191217282</v>
+        <v>0.9998999919889959</v>
       </c>
       <c r="D20">
-        <v>1.04631166533401</v>
+        <v>1.01711929466931</v>
       </c>
       <c r="E20">
-        <v>1.06023436294684</v>
+        <v>1.015847882877571</v>
       </c>
       <c r="F20">
-        <v>1.066783124012233</v>
+        <v>1.016080828821901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042264221916914</v>
+        <v>1.042435431998439</v>
       </c>
       <c r="J20">
-        <v>1.053003924771319</v>
+        <v>1.027434769321672</v>
       </c>
       <c r="K20">
-        <v>1.049649572664193</v>
+        <v>1.030867656181756</v>
       </c>
       <c r="L20">
-        <v>1.063525366366783</v>
+        <v>1.029617675155769</v>
       </c>
       <c r="M20">
-        <v>1.070052529787372</v>
+        <v>1.029846689414196</v>
       </c>
       <c r="N20">
-        <v>1.021389505324861</v>
+        <v>1.012220939865203</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045603577071934</v>
+        <v>0.9929145229816675</v>
       </c>
       <c r="D21">
-        <v>1.045367805291474</v>
+        <v>1.012081230573283</v>
       </c>
       <c r="E21">
-        <v>1.058934287305515</v>
+        <v>1.009144242981148</v>
       </c>
       <c r="F21">
-        <v>1.065324414440352</v>
+        <v>1.008656287793481</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041912998237963</v>
+        <v>1.040114108849648</v>
       </c>
       <c r="J21">
-        <v>1.052120971536306</v>
+        <v>1.022711501454989</v>
       </c>
       <c r="K21">
-        <v>1.048913425511204</v>
+        <v>1.026837279054032</v>
       </c>
       <c r="L21">
-        <v>1.062431113207089</v>
+        <v>1.023954421361607</v>
       </c>
       <c r="M21">
-        <v>1.068798731585098</v>
+        <v>1.023475499207719</v>
       </c>
       <c r="N21">
-        <v>1.02108673026635</v>
+        <v>1.010577104483173</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044800766272814</v>
+        <v>0.988394306256888</v>
       </c>
       <c r="D22">
-        <v>1.044774198771313</v>
+        <v>1.008827444888794</v>
       </c>
       <c r="E22">
-        <v>1.058117156175982</v>
+        <v>1.004813904181638</v>
       </c>
       <c r="F22">
-        <v>1.064407833176695</v>
+        <v>1.003860569481633</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041690835649962</v>
+        <v>1.038602941972087</v>
       </c>
       <c r="J22">
-        <v>1.051565094988554</v>
+        <v>1.019652473677964</v>
       </c>
       <c r="K22">
-        <v>1.048449723055849</v>
+        <v>1.024226033510131</v>
       </c>
       <c r="L22">
-        <v>1.061742774832816</v>
+        <v>1.020290596111041</v>
       </c>
       <c r="M22">
-        <v>1.068010403025235</v>
+        <v>1.019355933729278</v>
       </c>
       <c r="N22">
-        <v>1.020895950592299</v>
+        <v>1.009512191890787</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045226366468951</v>
+        <v>0.9908032235799453</v>
       </c>
       <c r="D23">
-        <v>1.045088896507099</v>
+        <v>1.010560825769875</v>
       </c>
       <c r="E23">
-        <v>1.05855030690726</v>
+        <v>1.007120906788006</v>
       </c>
       <c r="F23">
-        <v>1.064893677016921</v>
+        <v>1.006415488954933</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041808734830962</v>
+        <v>1.03940910640427</v>
       </c>
       <c r="J23">
-        <v>1.051859845029565</v>
+        <v>1.021282922360485</v>
       </c>
       <c r="K23">
-        <v>1.048695621970732</v>
+        <v>1.025617899673077</v>
       </c>
       <c r="L23">
-        <v>1.062107708436281</v>
+        <v>1.022243030407802</v>
       </c>
       <c r="M23">
-        <v>1.068428312874284</v>
+        <v>1.0215510240645</v>
       </c>
       <c r="N23">
-        <v>1.020997125708751</v>
+        <v>1.010079807399254</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046901591348246</v>
+        <v>1.000015042016131</v>
       </c>
       <c r="D24">
-        <v>1.046327486515711</v>
+        <v>1.017202366929418</v>
       </c>
       <c r="E24">
-        <v>1.060256163693427</v>
+        <v>1.015958411262396</v>
       </c>
       <c r="F24">
-        <v>1.066807589212314</v>
+        <v>1.016203250909074</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042270087634172</v>
+        <v>1.042473509974035</v>
       </c>
       <c r="J24">
-        <v>1.053018715308494</v>
+        <v>1.027512512921492</v>
       </c>
       <c r="K24">
-        <v>1.049661899774238</v>
+        <v>1.030933977396184</v>
       </c>
       <c r="L24">
-        <v>1.063543706020096</v>
+        <v>1.029710957647641</v>
       </c>
       <c r="M24">
-        <v>1.070073549714957</v>
+        <v>1.029951671389243</v>
       </c>
       <c r="N24">
-        <v>1.021394574400787</v>
+        <v>1.012247991241011</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048844982918109</v>
+        <v>1.010194615445195</v>
       </c>
       <c r="D25">
-        <v>1.047764097852791</v>
+        <v>1.024564266654167</v>
       </c>
       <c r="E25">
-        <v>1.062236967451152</v>
+        <v>1.025753785816232</v>
       </c>
       <c r="F25">
-        <v>1.069031103016446</v>
+        <v>1.027054260578012</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04279966295997</v>
+        <v>1.045820424099485</v>
       </c>
       <c r="J25">
-        <v>1.054360374638098</v>
+        <v>1.034383694405356</v>
       </c>
       <c r="K25">
-        <v>1.050779496055907</v>
+        <v>1.036792856593842</v>
       </c>
       <c r="L25">
-        <v>1.065208666706813</v>
+        <v>1.037965042059597</v>
       </c>
       <c r="M25">
-        <v>1.071982732459203</v>
+        <v>1.039246624526175</v>
       </c>
       <c r="N25">
-        <v>1.021853998805246</v>
+        <v>1.014637869070637</v>
       </c>
     </row>
   </sheetData>
